--- a/Quanlybanhang/dtb xe/inventory.xlsx
+++ b/Quanlybanhang/dtb xe/inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiet\Downloads\Quanlybanhang_k\dtb xe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE01B8E4-DFED-4392-82DF-695DFD81E5F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E771E77A-78C2-46CF-A68F-E2EC1AEACF10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Warehouse_Item_ID</t>
   </si>
@@ -43,98 +43,17 @@
     <t>Is_In_Product</t>
   </si>
   <si>
-    <t>WH001</t>
-  </si>
-  <si>
-    <t>20AH</t>
-  </si>
-  <si>
-    <t>NIJIA</t>
-  </si>
-  <si>
-    <t>RAPTOR</t>
-  </si>
-  <si>
-    <t>GT50</t>
-  </si>
-  <si>
-    <t>TAILG</t>
-  </si>
-  <si>
-    <t>JS32</t>
-  </si>
-  <si>
-    <t>JK57</t>
-  </si>
-  <si>
-    <t>ORIS</t>
-  </si>
-  <si>
-    <t>YADEA</t>
-  </si>
-  <si>
-    <t>VELAX</t>
-  </si>
-  <si>
-    <t>EVO</t>
-  </si>
-  <si>
-    <t>Vinfast</t>
-  </si>
-  <si>
-    <t>FELIZ</t>
-  </si>
-  <si>
-    <t>WH002</t>
-  </si>
-  <si>
-    <t>WH003</t>
-  </si>
-  <si>
-    <t>WH004</t>
-  </si>
-  <si>
-    <t>WH005</t>
-  </si>
-  <si>
-    <t>WH006</t>
-  </si>
-  <si>
-    <t>WH007</t>
-  </si>
-  <si>
-    <t>WH008</t>
-  </si>
-  <si>
-    <t>WH009</t>
-  </si>
-  <si>
-    <t>DDN</t>
-  </si>
-  <si>
-    <t>DDT</t>
-  </si>
-  <si>
-    <t>MDV</t>
-  </si>
-  <si>
-    <t>MDY</t>
+    <t>Created_Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -496,17 +415,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
@@ -514,7 +431,7 @@
     <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -536,216 +453,11 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="H1" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>30</v>
-      </c>
-      <c r="F2">
-        <v>15000000</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>30</v>
-      </c>
-      <c r="F3">
-        <v>16000000</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4">
-        <v>30</v>
-      </c>
-      <c r="F4">
-        <v>17000000</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5">
-        <v>30</v>
-      </c>
-      <c r="F5">
-        <v>18000000</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6">
-        <v>30</v>
-      </c>
-      <c r="F6">
-        <v>19000000</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7">
-        <v>30</v>
-      </c>
-      <c r="F7">
-        <v>20000000</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8">
-        <v>30</v>
-      </c>
-      <c r="F8">
-        <v>21000000</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9">
-        <v>30</v>
-      </c>
-      <c r="F9">
-        <v>22000000</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10">
-        <v>30</v>
-      </c>
-      <c r="F10">
-        <v>23000000</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>